--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb3-Tgfbr3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H2">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I2">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J2">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N2">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P2">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q2">
-        <v>9.542744128717889</v>
+        <v>32.44362781296667</v>
       </c>
       <c r="R2">
-        <v>85.88469715846099</v>
+        <v>291.9926503167</v>
       </c>
       <c r="S2">
-        <v>0.001089575605198992</v>
+        <v>0.00361236934919492</v>
       </c>
       <c r="T2">
-        <v>0.001089575605198992</v>
+        <v>0.00361236934919492</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H3">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I3">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J3">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>342.820243</v>
       </c>
       <c r="O3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P3">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q3">
-        <v>73.40326105904988</v>
+        <v>262.7180077547633</v>
       </c>
       <c r="R3">
-        <v>660.6293495314491</v>
+        <v>2364.46206979287</v>
       </c>
       <c r="S3">
-        <v>0.008381069586819088</v>
+        <v>0.02925179897161692</v>
       </c>
       <c r="T3">
-        <v>0.00838106958681909</v>
+        <v>0.02925179897161692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H4">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I4">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J4">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>92.512991</v>
       </c>
       <c r="O4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P4">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q4">
-        <v>19.80850130173478</v>
+        <v>70.89671389957667</v>
       </c>
       <c r="R4">
-        <v>178.276511715613</v>
+        <v>638.07042509619</v>
       </c>
       <c r="S4">
-        <v>0.002261703709415339</v>
+        <v>0.00789384953266895</v>
       </c>
       <c r="T4">
-        <v>0.00226170370941534</v>
+        <v>0.00789384953266895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>66.829058</v>
       </c>
       <c r="I5">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J5">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N5">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O5">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P5">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q5">
-        <v>330.9384382482629</v>
+        <v>314.3611414151711</v>
       </c>
       <c r="R5">
-        <v>2978.445944234366</v>
+        <v>2829.25027273654</v>
       </c>
       <c r="S5">
-        <v>0.03778603347991123</v>
+        <v>0.03500189801130181</v>
       </c>
       <c r="T5">
-        <v>0.03778603347991123</v>
+        <v>0.0350018980113018</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>66.829058</v>
       </c>
       <c r="I6">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J6">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>342.820243</v>
       </c>
       <c r="O6">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P6">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q6">
         <v>2545.594878113455</v>
@@ -818,10 +818,10 @@
         <v>22910.3539030211</v>
       </c>
       <c r="S6">
-        <v>0.29065204332211</v>
+        <v>0.2834340526335785</v>
       </c>
       <c r="T6">
-        <v>0.29065204332211</v>
+        <v>0.2834340526335785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>66.829058</v>
       </c>
       <c r="I7">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J7">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>92.512991</v>
       </c>
       <c r="O7">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P7">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q7">
         <v>686.9506712547199</v>
@@ -880,10 +880,10 @@
         <v>6182.556041292478</v>
       </c>
       <c r="S7">
-        <v>0.07843495364417549</v>
+        <v>0.07648711677852632</v>
       </c>
       <c r="T7">
-        <v>0.07843495364417549</v>
+        <v>0.07648711677852632</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>95.494299</v>
       </c>
       <c r="I8">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J8">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.85604233333333</v>
+        <v>14.11187666666667</v>
       </c>
       <c r="N8">
-        <v>44.568127</v>
+        <v>42.33562999999999</v>
       </c>
       <c r="O8">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485527</v>
       </c>
       <c r="P8">
-        <v>0.09286934904108346</v>
+        <v>0.08862966207485526</v>
       </c>
       <c r="Q8">
-        <v>472.8891161786636</v>
+        <v>449.2012566192633</v>
       </c>
       <c r="R8">
-        <v>4256.002045607973</v>
+        <v>4042.811309573369</v>
       </c>
       <c r="S8">
-        <v>0.05399373995597324</v>
+        <v>0.05001539471435854</v>
       </c>
       <c r="T8">
-        <v>0.05399373995597323</v>
+        <v>0.05001539471435853</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>95.494299</v>
       </c>
       <c r="I9">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J9">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>342.820243</v>
       </c>
       <c r="O9">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983047</v>
       </c>
       <c r="P9">
-        <v>0.7143556381787382</v>
+        <v>0.7176943460983046</v>
       </c>
       <c r="Q9">
         <v>3637.48653203274</v>
@@ -1004,10 +1004,10 @@
         <v>32737.37878829466</v>
       </c>
       <c r="S9">
-        <v>0.415322525269809</v>
+        <v>0.4050084944931093</v>
       </c>
       <c r="T9">
-        <v>0.4153225252698089</v>
+        <v>0.4050084944931092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>95.494299</v>
       </c>
       <c r="I10">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J10">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>92.512991</v>
       </c>
       <c r="O10">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="P10">
-        <v>0.1927750127801784</v>
+        <v>0.1936759918268401</v>
       </c>
       <c r="Q10">
         <v>981.6070248820344</v>
@@ -1066,10 +1066,10 @@
         <v>8834.463223938308</v>
       </c>
       <c r="S10">
-        <v>0.1120783554265876</v>
+        <v>0.1092950255156449</v>
       </c>
       <c r="T10">
-        <v>0.1120783554265875</v>
+        <v>0.1092950255156448</v>
       </c>
     </row>
   </sheetData>
